--- a/app/DB構築.xlsx
+++ b/app/DB構築.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mahjong-app\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DD4A8D-A81A-4CA2-B668-7A875CCF8BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>CREATE TABLE free_jannsou (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id INT AUTO_INCREMENT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    user_id INT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name VARCHAR(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    created_at DATETIME DEFAULT CURRENT_TIMESTAMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (user_id) REFERENCES users(id)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +92,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +105,789 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円柱 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5921F19-1752-DF5E-F1AC-8A2D5C533C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="755650"/>
+          <a:ext cx="2044700" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>uses</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D7F1C9-0D6B-4C91-B9C3-EC9E34D16264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1123950" y="2578100"/>
+          <a:ext cx="2063750" cy="1079500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="54864" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t> カラム</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic"/>
+            <a:ea typeface="Yu Gothic"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>id(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>主キー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>username</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>password</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>created_at </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic"/>
+            <a:ea typeface="Yu Gothic"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円柱 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893CBB01-CC52-4B05-931C-06C58C360474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943350" y="762000"/>
+          <a:ext cx="2044700" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>free_results_all </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7725C8B2-C960-4370-A51B-6B29EAABAAB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3917950" y="2597150"/>
+          <a:ext cx="2006600" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="54864" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t> カラム</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic"/>
+            <a:ea typeface="Yu Gothic"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>username</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>created_at</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>juni</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic"/>
+            <a:ea typeface="Yu Gothic"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="円柱 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418952A6-16F5-4B9E-A8CC-9E6DF23AC902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6426200" y="781050"/>
+          <a:ext cx="2044700" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>free_jannsou</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621258F9-BEBF-42F1-BFBE-290E3DA0A79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6527800" y="2641600"/>
+          <a:ext cx="2006600" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="54864" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t> カラム</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic"/>
+            <a:ea typeface="Yu Gothic"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>username</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>jannsou</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>主キー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic"/>
+            <a:ea typeface="Yu Gothic"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic"/>
+            <a:ea typeface="Yu Gothic"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矢印: 右 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E221462-432D-7CEF-F72F-A14E5277A250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8547100" y="1282700"/>
+          <a:ext cx="641350" cy="463550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1152,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="O5:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="5" spans="15:15">
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="15:15">
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="15:15">
+      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="15:15">
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="15:15">
+      <c r="O9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="15:15">
+      <c r="O10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="15:15">
+      <c r="O11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/DB構築.xlsx
+++ b/app/DB構築.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mahjong-app\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DD4A8D-A81A-4CA2-B668-7A875CCF8BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F45F3F-A7B1-4BF9-ADBB-DF08D7B9BE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>CREATE TABLE free_jannsou (</t>
   </si>
@@ -46,6 +46,30 @@
   </si>
   <si>
     <t>);</t>
+  </si>
+  <si>
+    <t>INSERT INTO free_jannsou (username, name) VALUES ('kisen', 'パターン');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・雀荘登録（home画面で）</t>
+    <rPh sb="1" eb="5">
+      <t>ジャンソウトウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -535,7 +559,7 @@
               <a:latin typeface="Yu Gothic"/>
               <a:ea typeface="Yu Gothic"/>
             </a:rPr>
-            <a:t>created_at</a:t>
+            <a:t>play_date</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1153,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="O5:O11"/>
+  <dimension ref="C5:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1196,6 +1220,21 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="15:15">
+      <c r="O12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
